--- a/Result/ARIMA/Manufacturing/CHN.xlsx
+++ b/Result/ARIMA/Manufacturing/CHN.xlsx
@@ -463,7 +463,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="n">
-        <v>31.97506997026333</v>
+        <v>30.32009812852694</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>2005</v>
       </c>
       <c r="B3" t="n">
-        <v>32.09392432867769</v>
+        <v>31.9276717723328</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>2006</v>
       </c>
       <c r="B4" t="n">
-        <v>32.45232805659434</v>
+        <v>32.0780328183037</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>2007</v>
       </c>
       <c r="B5" t="n">
-        <v>32.38335311644068</v>
+        <v>32.54379460481448</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>2008</v>
       </c>
       <c r="B6" t="n">
-        <v>32.11941160334752</v>
+        <v>32.25856392075065</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>2009</v>
       </c>
       <c r="B7" t="n">
-        <v>31.59623809103104</v>
+        <v>31.90604200663718</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>2010</v>
       </c>
       <c r="B8" t="n">
-        <v>31.61282168200608</v>
+        <v>31.27255309819001</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>2011</v>
       </c>
       <c r="B9" t="n">
-        <v>32.06479118642368</v>
+        <v>31.56531261738984</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>2012</v>
       </c>
       <c r="B10" t="n">
-        <v>31.52857786597396</v>
+        <v>32.22104961281069</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>2013</v>
       </c>
       <c r="B11" t="n">
-        <v>30.67100807217443</v>
+        <v>31.20113533175558</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>2014</v>
       </c>
       <c r="B12" t="n">
-        <v>30.39644420551544</v>
+        <v>30.215870477588</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>2015</v>
       </c>
       <c r="B13" t="n">
-        <v>28.95167057872186</v>
+        <v>30.25228514594359</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2016</v>
       </c>
       <c r="B14" t="n">
-        <v>28.06944223771233</v>
+        <v>28.26980085393038</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -745,7 +745,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="n">
-        <v>31.97506997026333</v>
+        <v>30.20339941131409</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -755,7 +755,7 @@
         <v>2005</v>
       </c>
       <c r="B3" t="n">
-        <v>32.09392432867769</v>
+        <v>31.86634100755996</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -765,7 +765,7 @@
         <v>2006</v>
       </c>
       <c r="B4" t="n">
-        <v>32.45232805659434</v>
+        <v>31.97932853014283</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -775,7 +775,7 @@
         <v>2007</v>
       </c>
       <c r="B5" t="n">
-        <v>32.38335311644068</v>
+        <v>32.42541722268849</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -785,7 +785,7 @@
         <v>2008</v>
       </c>
       <c r="B6" t="n">
-        <v>32.11941160334752</v>
+        <v>32.1473450054343</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -795,7 +795,7 @@
         <v>2009</v>
       </c>
       <c r="B7" t="n">
-        <v>31.59623809103104</v>
+        <v>31.80947517816186</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -805,7 +805,7 @@
         <v>2010</v>
       </c>
       <c r="B8" t="n">
-        <v>31.61282168200608</v>
+        <v>31.20390373274412</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -815,7 +815,7 @@
         <v>2011</v>
       </c>
       <c r="B9" t="n">
-        <v>32.06479118642368</v>
+        <v>31.49107688713051</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -825,7 +825,7 @@
         <v>2012</v>
       </c>
       <c r="B10" t="n">
-        <v>31.52857786597396</v>
+        <v>32.12082585899216</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -835,7 +835,7 @@
         <v>2013</v>
       </c>
       <c r="B11" t="n">
-        <v>30.67100807217443</v>
+        <v>31.13591524019607</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -845,7 +845,7 @@
         <v>2014</v>
       </c>
       <c r="B12" t="n">
-        <v>30.39644420551544</v>
+        <v>30.19549576837826</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -855,7 +855,7 @@
         <v>2015</v>
       </c>
       <c r="B13" t="n">
-        <v>28.95167057872186</v>
+        <v>30.24020168257207</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -865,7 +865,7 @@
         <v>2016</v>
       </c>
       <c r="B14" t="n">
-        <v>28.06944223771233</v>
+        <v>28.33883154473909</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -875,7 +875,7 @@
         <v>2017</v>
       </c>
       <c r="B15" t="n">
-        <v>28.10893687151002</v>
+        <v>27.82165192186463</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -885,7 +885,7 @@
         <v>2018</v>
       </c>
       <c r="B16" t="n">
-        <v>27.84101115441765</v>
+        <v>28.32219059128905</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -895,7 +895,7 @@
         <v>2019</v>
       </c>
       <c r="B17" t="n">
-        <v>26.77472170589195</v>
+        <v>27.92401038471845</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -905,7 +905,7 @@
         <v>2020</v>
       </c>
       <c r="B18" t="n">
-        <v>26.28518884296746</v>
+        <v>26.55365355853328</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -915,7 +915,7 @@
         <v>2021</v>
       </c>
       <c r="B19" t="n">
-        <v>27.43772961721378</v>
+        <v>26.40008389658678</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
